--- a/01_signal_production/Data_Generation_wRHC/Data_5K_13_6_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_wRHC/Data_5K_13_6_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -488,297 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0162</v>
+        <v>6.308e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002803</v>
+        <v>2.759e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002009</v>
+        <v>1.369e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001947</v>
+        <v>7.686e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001956</v>
+        <v>4.425e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001969</v>
+        <v>2.963e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002031</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.002072</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.002083</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002107</v>
+        <v>1.978e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2683</v>
+        <v>1.003e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02687</v>
+        <v>4.416e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00698</v>
+        <v>2.226e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003245</v>
+        <v>1.248e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00228</v>
+        <v>7.439e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002004</v>
+        <v>4.749e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001946</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001877</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00196</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.001851</v>
+        <v>3.166e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.404</v>
+        <v>5.118e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4563</v>
+        <v>2.25e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1091</v>
+        <v>1.135e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03715</v>
+        <v>6.234e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01627</v>
+        <v>3.732e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008482</v>
+        <v>2.397e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005174</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.003594</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.002819</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.002395</v>
+        <v>1.603e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.59</v>
+        <v>0.0001629</v>
       </c>
       <c r="C5" t="n">
-        <v>2.388</v>
+        <v>7.073e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5699</v>
+        <v>3.497e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1963</v>
+        <v>1.95e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08445999999999999</v>
+        <v>1.181e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.042</v>
+        <v>7.604e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02329</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01392</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.009044999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.006322</v>
+        <v>5.038e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.98</v>
+        <v>0.0003888</v>
       </c>
       <c r="C6" t="n">
-        <v>7.268</v>
+        <v>0.0001735</v>
       </c>
       <c r="D6" t="n">
-        <v>1.822</v>
+        <v>8.47e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6392</v>
+        <v>4.89e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2752</v>
+        <v>2.916e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1372</v>
+        <v>1.86e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07553</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04458</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.02808</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01863</v>
+        <v>1.223e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.1</v>
+        <v>0.0008157</v>
       </c>
       <c r="C7" t="n">
-        <v>18.44</v>
+        <v>0.0003597</v>
       </c>
       <c r="D7" t="n">
-        <v>4.473</v>
+        <v>0.0001801</v>
       </c>
       <c r="E7" t="n">
-        <v>1.579</v>
+        <v>9.980999999999999e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6862</v>
+        <v>5.987e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3429</v>
+        <v>3.78e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1864</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.06925000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.04614</v>
+        <v>2.556e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.7</v>
+        <v>0.001497</v>
       </c>
       <c r="C8" t="n">
-        <v>38.45</v>
+        <v>0.0006587</v>
       </c>
       <c r="D8" t="n">
-        <v>9.446999999999999</v>
+        <v>0.0003332</v>
       </c>
       <c r="E8" t="n">
-        <v>3.256</v>
+        <v>0.0001849</v>
       </c>
       <c r="F8" t="n">
-        <v>1.431</v>
+        <v>0.0001127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7141999999999999</v>
+        <v>7.122999999999999e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3962</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2332</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09753000000000001</v>
+        <v>4.706e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.002566</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001126</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0005718</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0003199</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0001885</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001223</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.004e-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.004166</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001806</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0009213</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.000512</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000303</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000196</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0001292</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.006236</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002763</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001344</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0007698</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0004631</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0002806</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0001951</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.009327999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003986</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.002051</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001131</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0006896</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0004278</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0002897</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01287</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.00572</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.002885</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001605</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0009613999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0006115</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0004048</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01803</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.007874000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.003978</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002218</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0008376</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0005522</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02408</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01063</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.005315</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.003009</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001794</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001121</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000752</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01414</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.007047</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00391</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.002353</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.001489</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0009963999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.04121</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01804</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.009102000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.005095</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003083</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001924</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001292</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05205</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01167</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.006561</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003864</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002461</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.001599</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06553</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02894</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01456</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.008108000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.004823</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.003088</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.08201</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03621</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01799</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01002</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.006078</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.003838</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.04432</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02218</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01234</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.007396</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.004675</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.003135</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1216</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02733</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01513</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.009046</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.005732</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.003836</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1447</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06396</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03264</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01812</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01079</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.006912</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00458</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1769</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.07765</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03954</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02195</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01296</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.008126</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.005488</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2094</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.09277000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.04464</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02584</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.009849999999999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.006493</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1082</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03014</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01819</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01145</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.007679</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2833</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1264</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.06328</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03539</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02099</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.009018999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3318</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1466</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.07209</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.04096</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02469</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01041</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3847</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1662</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.08599</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.04806</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02866</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01814</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01207</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4457</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1978</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.09769</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.05495</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03309</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02104</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01384</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5076000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2239</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1126</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.06295000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03748</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02358</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01584</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5854</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1288</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.07138</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.04301</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02663</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01818</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6419</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2934</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1457</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.08152</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04888</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02038</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7386</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3215</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.09069000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.05481</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0351</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.02313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8371</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1807</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1042</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.06229</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03971</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02599</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9274</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4148</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2082</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.06836</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.04419</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02978</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4595</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.07829</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.178</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5181</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2646</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1458</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.08679000000000001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.05558</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03662</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5795</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2912</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1632</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.09598</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.06227</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04042</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1774</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.06833</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.04551</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7023</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1986</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.07444000000000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.05033</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7808</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3878</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2188</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.08364000000000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.05502</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8614000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4285</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2345</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1436</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.09198000000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.06212</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2632</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1594</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06698</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5246</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2929</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1731</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1098</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.07339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.584</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5696</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3171</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1206</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6243</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2093</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1328</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.08809</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6778999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3741</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2269</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.09692000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7403</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.4175</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2464</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1565</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1015</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.596</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7959000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4509</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1697</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1129</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.936</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8712</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4843</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2913</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1814</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1214</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4.246</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9294</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5247000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3175</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1997</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4.479</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.011</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5624</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3405</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2175</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.1433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.943</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6096</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.2343</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5.242</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.311</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6587</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3984</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.1676</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5.691</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7136</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1781</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>669.4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.127</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.669</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7313</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.4424</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2776</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1837</v>
+      <c r="B57" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7678</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.4564</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2884</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.1923</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4339</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1898</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.09512</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.05334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.03166</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02032</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01354</v>
       </c>
     </row>
   </sheetData>
